--- a/tables.xlsx
+++ b/tables.xlsx
@@ -1,84 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\new mrcet timetable\Img2excel-main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1 - Table 1" sheetId="1" r:id="rId1"/>
     <sheet name="Page 1 - Table 2" sheetId="2" r:id="rId2"/>
     <sheet name="Page 1 - Table 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Page 2 - Table 1" sheetId="4" r:id="rId4"/>
+    <sheet name="Page 2 - Table 2" sheetId="5" r:id="rId5"/>
+    <sheet name="Page 2 - Table 3" sheetId="6" r:id="rId6"/>
+    <sheet name="iot4" sheetId="7" r:id="rId7"/>
+    <sheet name="teach_iot4" sheetId="8" r:id="rId8"/>
+    <sheet name="code_iot4" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="96">
   <si>
     <t>Time/Day</t>
   </si>
   <si>
     <t>(1)
-9.30-10.40</t>
+9:30-10:40</t>
   </si>
   <si>
     <t>(2)
-10.40-11.40</t>
+10:40-11:40</t>
   </si>
   <si>
     <t>(3)
-11.50-12.50</t>
-  </si>
-  <si>
-    <t>1:40-2.40</t>
+11:50-12:50</t>
+  </si>
+  <si>
+    <t>LUNCH</t>
+  </si>
+  <si>
+    <t>(4)
+1:40-2:40</t>
   </si>
   <si>
     <t>(5)
-2.40-3.40</t>
+2:40-3:40</t>
   </si>
   <si>
     <t>MON</t>
   </si>
   <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>FSD</t>
+  </si>
+  <si>
     <t>BT</t>
   </si>
   <si>
     <t>CC</t>
   </si>
   <si>
-    <t>DL</t>
-  </si>
-  <si>
-    <t>FSD</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
     <t>TUES</t>
   </si>
   <si>
     <t>WED</t>
   </si>
   <si>
+    <t>THUR</t>
+  </si>
+  <si>
+    <t>FRI</t>
+  </si>
+  <si>
+    <t> DL LAB-ROOM NO:1002</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
     <t>TUTORIAL</t>
   </si>
   <si>
-    <t>THUR</t>
-  </si>
-  <si>
-    <t>FRI</t>
-  </si>
-  <si>
-    <t>SAT</t>
-  </si>
-  <si>
-    <t>+FSD LAB
-ROOM NO:
-12017</t>
+    <t>S. No</t>
+  </si>
+  <si>
+    <t>SUBJECT CODE</t>
   </si>
   <si>
     <t>SUBJECT NAME</t>
@@ -87,110 +106,232 @@
     <t>NAME OF THE FACULTY</t>
   </si>
   <si>
-    <t>R20AO516</t>
-  </si>
-  <si>
-    <t>Full Stack Development_</t>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>R20A0516</t>
+  </si>
+  <si>
+    <t>Full Stack Development</t>
+  </si>
+  <si>
+    <t>Mrs V.Suneetha</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>R20A0522</t>
+  </si>
+  <si>
+    <t>Blockchain Technology</t>
+  </si>
+  <si>
+    <t>Mr . A. Anvesh</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>R20A6610</t>
+  </si>
+  <si>
+    <t>Deep Learning</t>
+  </si>
+  <si>
+    <t>Mr A.Naveen Kumar</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>R20A0517</t>
+  </si>
+  <si>
+    <t>PE-V- Distributed Systems</t>
+  </si>
+  <si>
+    <t>Mrs P. Ashwini Goud</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>R20A0521</t>
+  </si>
+  <si>
+    <t>PE-VI: Cloud Computing</t>
+  </si>
+  <si>
+    <t>Mr J Mahendar</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>R20A0589</t>
+  </si>
+  <si>
+    <t>FSD LAB</t>
+  </si>
+  <si>
+    <t>Mrs V.Suneetha/Mrs D Kalpana/Mrs.M
+Anusha</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>R20A0XXX</t>
+  </si>
+  <si>
+    <t>DL LAB</t>
+  </si>
+  <si>
+    <t>Mr A.Naveen Kumar /Dr. B. Jyothi/ Mrs
+R. Shashi Rekha</t>
+  </si>
+  <si>
+    <t>CLASS ADVI SOR DETAILS</t>
+  </si>
+  <si>
+    <t>Class Advisors</t>
+  </si>
+  <si>
+    <t>Mrs.V.Suneetha</t>
+  </si>
+  <si>
+    <t>8125020036</t>
+  </si>
+  <si>
+    <t>Mrs.VDivya</t>
+  </si>
+  <si>
+    <t>8125287136</t>
+  </si>
+  <si>
+    <t>(5)
+2:40- 3:40</t>
+  </si>
+  <si>
+    <t>SARA</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>BT LAB-ROOM NO: 1202</t>
+  </si>
+  <si>
+    <t>FSD LAB</t>
+  </si>
+  <si>
+    <t>-ROOM NO: 1202</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Mrs D. Kalpana</t>
+  </si>
+  <si>
+    <t>Mrs P Satyavati</t>
+  </si>
+  <si>
+    <t>R20A6208</t>
+  </si>
+  <si>
+    <t>Security Assessment and Risk Analysis</t>
+  </si>
+  <si>
+    <t>Dr. M.V.Kamal</t>
+  </si>
+  <si>
+    <t>R20A6210</t>
+  </si>
+  <si>
+    <t>PE-V- Digital Forensic</t>
+  </si>
+  <si>
+    <t>Mrs R. Shashi Rekha</t>
+  </si>
+  <si>
+    <t>Mrs R Annapurna</t>
+  </si>
+  <si>
+    <t>Mrs D. Kalpana / Mrs V.Suneetha / Mrs.M
+Anusha</t>
+  </si>
+  <si>
+    <t>R20A0591</t>
+  </si>
+  <si>
+    <t>BT LAB</t>
+  </si>
+  <si>
+    <t>Mrs Mr . A. Anvesh/ P Satyavati / Mr
+Dr.I.Nagaraju</t>
+  </si>
+  <si>
+    <t>CLASS ADVISOR DETAILS</t>
+  </si>
+  <si>
+    <t>Mrs.DKalpana</t>
+  </si>
+  <si>
+    <t>9959967192</t>
+  </si>
+  <si>
+    <t>Mr J Mahender</t>
+  </si>
+  <si>
+    <t>9949691286</t>
   </si>
   <si>
     <t>Mrs M.Gayatri</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>R2OAO522</t>
-  </si>
-  <si>
-    <t>Blockchain Technology</t>
-  </si>
-  <si>
-    <t>A. Anvesh
-Mr</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>R20A6610</t>
-  </si>
-  <si>
-    <t>Deep Learning</t>
-  </si>
-  <si>
     <t>Dr. B. Jyothi</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>R20AO517</t>
-  </si>
-  <si>
-    <t>PE V-Distributed Systems</t>
-  </si>
-  <si>
-    <t>Mrs P. Ashwini Goud</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>R2OAO521</t>
-  </si>
-  <si>
-    <t>PE VL Cloud Computing</t>
-  </si>
-  <si>
     <t>Dr.I.Nagaraju</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>R2040589</t>
-  </si>
-  <si>
-    <t>FSD
-LAB</t>
-  </si>
-  <si>
-    <t>Divya
-Mrs P. Ashwini Goud /V
-Mrs MGayatri</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>LAB
-BT</t>
-  </si>
-  <si>
-    <t>A Anvesh/ Mrs P Satyavatil Mrs R Annapurna
-Mr</t>
-  </si>
-  <si>
-    <t>CLASS ADVISOR DETAILS</t>
-  </si>
-  <si>
-    <t>Class Advisors</t>
-  </si>
-  <si>
-    <t>Mrs V_Bala</t>
-  </si>
-  <si>
-    <t>8106711395</t>
-  </si>
-  <si>
-    <t>8790185637</t>
+    <t>Mrs M.Gayatri / Mrs P. Ashwini Goud /V.Divya</t>
+  </si>
+  <si>
+    <t>Mr . A. Anvesh/ Mrs Mrs R Annapurna P Satyavati/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FSD LAB – ROOM NO: 1002</t>
+  </si>
+  <si>
+    <t>9:30-10:40</t>
+  </si>
+  <si>
+    <t>LUNCH</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>10:40-11:40</t>
+  </si>
+  <si>
+    <t>11:50-12:50</t>
+  </si>
+  <si>
+    <t>1 :40-2:40</t>
+  </si>
+  <si>
+    <t>2:40- 3:40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,10 +375,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -245,6 +392,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -291,7 +446,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,9 +478,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,6 +513,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,21 +689,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,36 +719,40 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -599,270 +763,275 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C7:D7"/>
+  <mergeCells count="3">
+    <mergeCell ref="E1:E7"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>48</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -872,4 +1041,703 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:E7"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="E6:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>